--- a/AAAGameData/Languages/ChineseSimplified.xlsx
+++ b/AAAGameData/Languages/ChineseSimplified.xlsx
@@ -1,61 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\Languages\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27FB5F-DA67-4F4E-88AC-01C7EA57985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">勾选锁定此行,锁定后将强制保留</t>
-        </d:r>
+          <t>勾选锁定此行,锁定后将强制保留</t>
+        </r>
       </text>
     </comment>
     <comment ref="B1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">多语言Key</t>
-        </d:r>
+          <t>多语言Key</t>
+        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="0">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
-        </d:r>
+          <t>多语言Value, 当值为空时, [一键翻译]会自动填充Value值</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -122,7 +132,7 @@
     <t>MenuUIForm.Tips</t>
   </si>
   <si>
-    <t>点击开始</t>
+    <t>开始游戏</t>
   </si>
   <si>
     <t>Nothing</t>
@@ -254,23 +264,371 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,742 +636,445 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1029,69 +1090,50 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1056">
+            <xdr:cNvPr id="1056" name="A1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1115,69 +1157,50 @@
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1057">
+            <xdr:cNvPr id="1057" name="A2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="190500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1201,69 +1224,50 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1058">
+            <xdr:cNvPr id="1058" name="A3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="381000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1287,69 +1291,50 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1059">
+            <xdr:cNvPr id="1059" name="A4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="571500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1373,69 +1358,50 @@
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1060">
+            <xdr:cNvPr id="1060" name="A5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="762000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1459,69 +1425,50 @@
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1061">
+            <xdr:cNvPr id="1061" name="A6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="952500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1545,69 +1492,50 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1062">
+            <xdr:cNvPr id="1062" name="A7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1143000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1631,69 +1559,50 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1063">
+            <xdr:cNvPr id="1063" name="A8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1333500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1717,69 +1626,50 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1064">
+            <xdr:cNvPr id="1064" name="A9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1524000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1803,69 +1693,50 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1065">
+            <xdr:cNvPr id="1065" name="A10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1714500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1889,69 +1760,50 @@
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1066">
+            <xdr:cNvPr id="1066" name="A11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="1905000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1975,69 +1827,50 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1067">
+            <xdr:cNvPr id="1067" name="A12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2095500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2061,69 +1894,50 @@
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1068">
+            <xdr:cNvPr id="1068" name="A13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2286000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2147,69 +1961,50 @@
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1069">
+            <xdr:cNvPr id="1069" name="A14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2476500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2233,69 +2028,50 @@
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1070">
+            <xdr:cNvPr id="1070" name="A15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2667000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2319,69 +2095,50 @@
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1071">
+            <xdr:cNvPr id="1071" name="A16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="2857500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2405,69 +2162,50 @@
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1072">
+            <xdr:cNvPr id="1072" name="A17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3048000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2491,69 +2229,50 @@
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1073">
+            <xdr:cNvPr id="1073" name="A18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3238500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2577,69 +2296,50 @@
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1074">
+            <xdr:cNvPr id="1074" name="A19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3429000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2663,69 +2363,50 @@
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1075">
+            <xdr:cNvPr id="1075" name="A20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3619500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2749,69 +2430,50 @@
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1076">
+            <xdr:cNvPr id="1076" name="A21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="3810000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2835,69 +2497,50 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1077">
+            <xdr:cNvPr id="1077" name="A22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4000500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2921,69 +2564,50 @@
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1078">
+            <xdr:cNvPr id="1078" name="A23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4191000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3007,69 +2631,50 @@
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1079">
+            <xdr:cNvPr id="1079" name="A24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1079"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4381500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3093,69 +2698,50 @@
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1080">
+            <xdr:cNvPr id="1080" name="A25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1080"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4572000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3179,69 +2765,50 @@
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1081">
+            <xdr:cNvPr id="1081" name="A26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1081"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4762500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3265,69 +2832,50 @@
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1082">
+            <xdr:cNvPr id="1082" name="A27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1082"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="4953000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3351,69 +2899,50 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A28" id="1083">
+            <xdr:cNvPr id="1083" name="A28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1083"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="5143500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3437,69 +2966,50 @@
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A29" id="1084">
+            <xdr:cNvPr id="1084" name="A29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1084"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="5334000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3523,69 +3033,50 @@
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A30" id="1085">
+            <xdr:cNvPr id="1085" name="A30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1085"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="5524500"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3609,69 +3100,50 @@
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A31" id="1086">
+            <xdr:cNvPr id="1086" name="A31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1086"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
+              <a:off x="0" y="5715000"/>
+              <a:ext cx="285750" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr rtl="0" algn="l">
+              <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
                 </a:rPr>
                 <a:t>锁定</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3726,7 +3198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3761,7 +3233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3935,323 +3407,317 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
-    <col min="3" max="3" width="38.6902858189174" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
+    <col min="2" max="2" width="25.4095238095238" customWidth="1"/>
+    <col min="3" max="3" width="38.6857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId146" name="A1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1056" name="A1" r:id="rId4">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4270,10 +3736,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId147" name="A2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1057" name="A2" r:id="rId5">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4292,10 +3758,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId148" name="A3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1058" name="A3" r:id="rId6">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4314,10 +3780,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId149" name="A4">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1059" name="A4" r:id="rId7">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4336,10 +3802,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId150" name="A5">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1060" name="A5" r:id="rId8">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4358,10 +3824,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId151" name="A6">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1061" name="A6" r:id="rId9">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4380,10 +3846,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId152" name="A7">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1062" name="A7" r:id="rId10">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4402,10 +3868,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId153" name="A8">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1063" name="A8" r:id="rId11">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4424,10 +3890,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId154" name="A9">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1064" name="A9" r:id="rId12">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4446,10 +3912,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId155" name="A10">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1065" name="A10" r:id="rId13">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4468,10 +3934,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId156" name="A11">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1066" name="A11" r:id="rId14">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4490,10 +3956,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId157" name="A12">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1067" name="A12" r:id="rId15">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4512,10 +3978,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId158" name="A13">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1068" name="A13" r:id="rId16">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4534,10 +4000,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId159" name="A14">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1069" name="A14" r:id="rId17">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4556,10 +4022,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId160" name="A15">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1070" name="A15" r:id="rId18">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4578,10 +4044,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId161" name="A16">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1071" name="A16" r:id="rId19">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4600,10 +4066,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId162" name="A17">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1072" name="A17" r:id="rId20">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4622,10 +4088,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId163" name="A18">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1073" name="A18" r:id="rId21">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4644,10 +4110,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId164" name="A19">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1074" name="A19" r:id="rId22">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4666,10 +4132,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId165" name="A20">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1075" name="A20" r:id="rId23">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4688,10 +4154,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId166" name="A21">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1076" name="A21" r:id="rId24">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4710,10 +4176,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId167" name="A22">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1077" name="A22" r:id="rId25">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4732,10 +4198,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId168" name="A23">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1078" name="A23" r:id="rId26">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4754,10 +4220,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId169" name="A24">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1079" name="A24" r:id="rId27">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4776,10 +4242,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId170" name="A25">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1080" name="A25" r:id="rId28">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4798,10 +4264,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId171" name="A26">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1081" name="A26" r:id="rId29">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4820,10 +4286,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId172" name="A27">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1082" name="A27" r:id="rId30">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4842,10 +4308,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId173" name="A28">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1083" name="A28" r:id="rId31">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4864,10 +4330,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId174" name="A29">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1084" name="A29" r:id="rId32">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4886,10 +4352,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId175" name="A30">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1085" name="A30" r:id="rId33">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -4908,10 +4374,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId176" name="A31">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+            <control shapeId="1086" name="A31" r:id="rId34">
+              <controlPr print="0" defaultSize="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
